--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>Задача</t>
   </si>
@@ -68,6 +68,15 @@
   </si>
   <si>
     <t xml:space="preserve">Разработать единый стандарт компоновки элементов, логика вызова методов +CSS, в частности меню, знак копирайт, название группы, год и т.д </t>
+  </si>
+  <si>
+    <t>12.01,2018</t>
+  </si>
+  <si>
+    <t>Выполнено</t>
+  </si>
+  <si>
+    <t>В работе</t>
   </si>
 </sst>
 </file>
@@ -84,7 +93,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -94,6 +103,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -110,14 +125,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -137,6 +147,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -442,147 +467,156 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="43.5703125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="29.28515625" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" customWidth="1"/>
-    <col min="8" max="8" width="71.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="43.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="71.85546875" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="9" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="10" t="s">
+    <row r="1" spans="1:8" s="6" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3" spans="1:8" s="10" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="9">
         <v>5</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="11">
         <v>43121</v>
       </c>
-      <c r="F3" s="3"/>
+      <c r="F3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+    <row r="4" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="1">
         <v>4</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="4">
         <v>43121</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="1">
         <v>5</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="4">
         <v>43131</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+      <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="1">
         <v>5</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="4">
         <v>43131</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+      <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="1">
         <v>5</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="4">
         <v>43121</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+      <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="1">
         <v>3</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="4">
         <v>43131</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>Задача</t>
   </si>
@@ -70,20 +70,30 @@
     <t xml:space="preserve">Разработать единый стандарт компоновки элементов, логика вызова методов +CSS, в частности меню, знак копирайт, название группы, год и т.д </t>
   </si>
   <si>
-    <t>12.01,2018</t>
-  </si>
-  <si>
     <t>Выполнено</t>
   </si>
   <si>
     <t>В работе</t>
+  </si>
+  <si>
+    <t>Проверка на версию браузера</t>
+  </si>
+  <si>
+    <t>Трудозатраты,
+дн.</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>Task</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,8 +102,24 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -108,8 +134,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
       </patternFill>
     </fill>
   </fills>
@@ -122,10 +152,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -136,9 +168,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -148,24 +177,44 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Акцент1" xfId="2" builtinId="29"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -464,73 +513,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="4" customWidth="1"/>
     <col min="2" max="2" width="43.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.28515625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="71.85546875" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="3"/>
+    <col min="3" max="4" width="17.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="71.85546875" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="6" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:9" s="5" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="10" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+    <row r="3" spans="1:9" s="14" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="13">
         <v>5</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="11">
+      <c r="F3" s="15">
         <v>43121</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="G3" s="15">
+        <v>43112</v>
+      </c>
+      <c r="H3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="4" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+    <row r="4" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -539,16 +597,19 @@
       <c r="C4" s="1">
         <v>4</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="4">
+      <c r="F4" s="16">
         <v>43121</v>
       </c>
-      <c r="F4" s="4"/>
+      <c r="G4" s="16"/>
     </row>
-    <row r="5" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+    <row r="5" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -557,15 +618,18 @@
       <c r="C5" s="1">
         <v>5</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="1">
+        <v>7</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="4">
+      <c r="F5" s="16">
         <v>43131</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+    <row r="6" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -574,49 +638,81 @@
       <c r="C6" s="1">
         <v>5</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1">
+        <v>7</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="4">
+      <c r="F6" s="16">
         <v>43131</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+    <row r="7" spans="1:9" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="9">
         <v>5</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="9">
+        <v>3</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="4">
+      <c r="F7" s="17">
         <v>43121</v>
       </c>
-      <c r="F7" s="4"/>
+      <c r="G7" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+    <row r="8" spans="1:9" s="14" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="13">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="4">
+      <c r="F8" s="15">
         <v>43131</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="15">
+        <v>43114</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>18</v>
+      </c>
+      <c r="C9" s="1">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>Задача</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>Task</t>
+  </si>
+  <si>
+    <t>Для работы с сессиями проект ASP.NET Core использует пакеты Microsoft.AspNetCore.Session и Microsoft.Extensions.Caching.Memory. </t>
   </si>
 </sst>
 </file>
@@ -516,7 +519,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,7 +531,7 @@
     <col min="6" max="6" width="19.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.85546875" style="4" customWidth="1"/>
     <col min="8" max="8" width="22.42578125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="71.85546875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="71.85546875" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
@@ -557,7 +560,7 @@
       <c r="H1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -586,6 +589,7 @@
       <c r="H3" s="11" t="s">
         <v>16</v>
       </c>
+      <c r="I3" s="12"/>
     </row>
     <row r="4" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
@@ -648,7 +652,7 @@
         <v>43131</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="10" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -671,6 +675,9 @@
         <v>17</v>
       </c>
       <c r="H7" s="7"/>
+      <c r="I7" s="8" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="8" spans="1:9" s="14" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
@@ -697,6 +704,7 @@
       <c r="H8" s="11" t="s">
         <v>16</v>
       </c>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4">

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>Задача</t>
   </si>
@@ -89,7 +89,21 @@
     <t>Task</t>
   </si>
   <si>
-    <t>Для работы с сессиями проект ASP.NET Core использует пакеты Microsoft.AspNetCore.Session и Microsoft.Extensions.Caching.Memory. </t>
+    <t>Зависит от задачи</t>
+  </si>
+  <si>
+    <t>Переход на версию ASP.NET CORE 2.0</t>
+  </si>
+  <si>
+    <t>Для работы с сессиями проект ASP.NET Core использует пакеты Microsoft.AspNetCore.Session и Microsoft.Extensions.Caching.Memory. 
+Версия поддерживается только для CORE 2.0</t>
+  </si>
+  <si>
+    <t>Выбор хостинга, ASP.NET CORE 2.0 + MS SQL
+или выбор VPS и определение минимальных требований к железу на первое время</t>
+  </si>
+  <si>
+    <t>Название схемы аутентификации оставил прежним: NotePlotCookies</t>
   </si>
 </sst>
 </file>
@@ -160,7 +174,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -212,6 +226,15 @@
     </xf>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -516,26 +539,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" style="4" customWidth="1"/>
     <col min="2" max="2" width="43.5703125" style="2" customWidth="1"/>
-    <col min="3" max="4" width="17.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="29.28515625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="71.85546875" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="3" max="3" width="20.28515625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="17.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="29.28515625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="22.42578125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="71.85546875" style="20" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="5" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>21</v>
       </c>
@@ -543,116 +567,120 @@
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="14" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="14" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="13"/>
+      <c r="D3" s="13">
         <v>5</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="E3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="F3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="15">
+      <c r="G3" s="15">
         <v>43121</v>
       </c>
-      <c r="G3" s="15">
+      <c r="H3" s="15">
         <v>43112</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="I3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="12"/>
-    </row>
-    <row r="4" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="19"/>
+    </row>
+    <row r="4" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>4</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>1</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="16">
+      <c r="G4" s="16">
         <v>43121</v>
       </c>
-      <c r="G4" s="16"/>
-    </row>
-    <row r="5" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H4" s="16"/>
+    </row>
+    <row r="5" spans="1:10" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>5</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>7</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="16">
+      <c r="G5" s="16">
         <v>43131</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="1">
         <v>5</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>7</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="16">
+      <c r="G6" s="16">
         <v>43131</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="10" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="10" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -660,67 +688,117 @@
         <v>9</v>
       </c>
       <c r="C7" s="9">
+        <v>8</v>
+      </c>
+      <c r="D7" s="9">
         <v>5</v>
       </c>
-      <c r="D7" s="9">
+      <c r="E7" s="9">
         <v>3</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="F7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="17">
+      <c r="G7" s="17">
         <v>43121</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="I7" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="14" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J7" s="18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="14" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>6</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="13"/>
+      <c r="D8" s="13">
         <v>3</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="E8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="F8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="15">
+      <c r="G8" s="15">
         <v>43131</v>
       </c>
-      <c r="G8" s="15">
+      <c r="H8" s="15">
         <v>43114</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="I8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="12"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="19"/>
+    </row>
+    <row r="9" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D9" s="1">
         <v>4</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="14" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>8</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13">
+        <v>5</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="15">
+        <v>43119</v>
+      </c>
+      <c r="H10" s="15">
+        <v>43121</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="1">
+        <v>5</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="16">
+        <v>43128</v>
       </c>
     </row>
   </sheetData>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>Задача</t>
   </si>
@@ -104,24 +104,19 @@
   </si>
   <si>
     <t>Название схемы аутентификации оставил прежним: NotePlotCookies</t>
+  </si>
+  <si>
+    <t>Блокирует задачу</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -136,7 +131,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -147,11 +142,6 @@
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -169,12 +159,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -206,41 +195,25 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Акцент1" xfId="2" builtinId="29"/>
+  <cellStyles count="2">
+    <cellStyle name="Акцент1" xfId="1" builtinId="29"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -539,27 +512,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" style="4" customWidth="1"/>
     <col min="2" max="2" width="43.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="17.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="29.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="22.42578125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="71.85546875" style="20" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="3"/>
+    <col min="3" max="4" width="16.42578125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="17.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="29.28515625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="71.85546875" style="14" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="5" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>21</v>
       </c>
@@ -570,117 +543,121 @@
         <v>22</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="14" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+    <row r="3" spans="1:11" s="10" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9">
         <v>5</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="F3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="G3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="15">
+      <c r="H3" s="11">
         <v>43121</v>
       </c>
-      <c r="H3" s="15">
+      <c r="I3" s="11">
         <v>43112</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="J3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="19"/>
-    </row>
-    <row r="4" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K3" s="13"/>
+    </row>
+    <row r="4" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>4</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>1</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="16">
+      <c r="H4" s="12">
         <v>43121</v>
       </c>
-      <c r="H4" s="16"/>
-    </row>
-    <row r="5" spans="1:10" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I4" s="12"/>
+    </row>
+    <row r="5" spans="1:11" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>5</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>7</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="16">
+      <c r="H5" s="12">
         <v>43131</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>5</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>7</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="16">
+      <c r="H6" s="12">
         <v>43131</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="10" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="10" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -690,114 +667,120 @@
       <c r="C7" s="9">
         <v>8</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="9"/>
+      <c r="E7" s="9">
         <v>5</v>
       </c>
-      <c r="E7" s="9">
+      <c r="F7" s="9">
         <v>3</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="G7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="17">
+      <c r="H7" s="11">
         <v>43121</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="15">
+        <v>43128</v>
+      </c>
+      <c r="J7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="18" t="s">
+      <c r="K7" s="13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="14" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+    <row r="8" spans="1:11" s="10" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
         <v>6</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13">
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9">
         <v>3</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="F8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="G8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="15">
+      <c r="H8" s="11">
         <v>43131</v>
       </c>
-      <c r="H8" s="15">
+      <c r="I8" s="11">
         <v>43114</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="J8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="19"/>
-    </row>
-    <row r="9" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K8" s="13"/>
+    </row>
+    <row r="9" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9" s="1">
         <v>4</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="14" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+    <row r="10" spans="1:11" s="10" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
         <v>8</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13">
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9">
         <v>5</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="F10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="G10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="15">
+      <c r="H10" s="11">
         <v>43119</v>
       </c>
-      <c r="H10" s="15">
+      <c r="I10" s="11">
         <v>43121</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="J10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="19" t="s">
+      <c r="K10" s="13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="1">
+      <c r="E11" s="1">
         <v>5</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="16">
+      <c r="I11" s="12">
         <v>43128</v>
       </c>
     </row>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
   <si>
     <t>Задача</t>
   </si>
@@ -107,6 +107,33 @@
   </si>
   <si>
     <t>Блокирует задачу</t>
+  </si>
+  <si>
+    <t>Восстановление пароля из формы ввода логина</t>
+  </si>
+  <si>
+    <t>Форма списка единиц измерений</t>
+  </si>
+  <si>
+    <t>Форма добавления и редактирования ед.изм</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>Создание новой группы ед.измерений</t>
+  </si>
+  <si>
+    <t>Аналитика - получения табличных значений по монитору за период</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>Аналитика - графическое представление данных по выбранным параметрам мониторов</t>
+  </si>
+  <si>
+    <t>7.0</t>
   </si>
 </sst>
 </file>
@@ -512,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -637,7 +664,7 @@
         <v>43131</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -719,7 +746,7 @@
       </c>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -780,8 +807,133 @@
       <c r="G11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="12">
+      <c r="H11" s="12">
         <v>43128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>10</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="9">
+        <v>5</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9">
+        <v>3</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="11">
+        <v>43134</v>
+      </c>
+      <c r="I12" s="11">
+        <v>43134</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="13"/>
+    </row>
+    <row r="13" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="1">
+        <v>5</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="1">
+        <v>11</v>
+      </c>
+      <c r="E14" s="1">
+        <v>5</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="1">
+        <v>5</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="1">
+        <v>5</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="1">
+        <v>14</v>
+      </c>
+      <c r="E17" s="1">
+        <v>5</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K17" s="14">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
   <si>
     <t>Задача</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>7.0</t>
+  </si>
+  <si>
+    <t>Фиксация коннектов к сайту и хостов, откуда был сделан коннект</t>
   </si>
 </sst>
 </file>
@@ -539,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -934,6 +937,14 @@
       </c>
       <c r="K17" s="14">
         <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
   <si>
     <t>Задача</t>
   </si>
@@ -137,13 +137,19 @@
   </si>
   <si>
     <t>Фиксация коннектов к сайту и хостов, откуда был сделан коннект</t>
+  </si>
+  <si>
+    <t>CSS - кнопки для журналов объектов(праметры, группы, ед.изм и т.п.)</t>
+  </si>
+  <si>
+    <t>ОЧЕНЬ НУЖНО</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,8 +166,16 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -179,6 +193,11 @@
         <fgColor theme="4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -189,11 +208,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -240,10 +260,26 @@
     <xf numFmtId="14" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Акцент1" xfId="1" builtinId="29"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Плохой" xfId="2" builtinId="27"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -542,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -945,6 +981,29 @@
       </c>
       <c r="B18" s="2" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="16">
+        <v>17</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18">
+        <v>5</v>
+      </c>
+      <c r="F19" s="18"/>
+      <c r="G19" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="20" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
   <si>
     <t>Задача</t>
   </si>
@@ -112,18 +112,9 @@
     <t>Восстановление пароля из формы ввода логина</t>
   </si>
   <si>
-    <t>Форма списка единиц измерений</t>
-  </si>
-  <si>
-    <t>Форма добавления и редактирования ед.изм</t>
-  </si>
-  <si>
     <t>1.0</t>
   </si>
   <si>
-    <t>Создание новой группы ед.измерений</t>
-  </si>
-  <si>
     <t>Аналитика - получения табличных значений по монитору за период</t>
   </si>
   <si>
@@ -143,6 +134,18 @@
   </si>
   <si>
     <t>ОЧЕНЬ НУЖНО</t>
+  </si>
+  <si>
+    <t>Группы ед.измерений, редактирование , создание и удаление.Рефакторинг формы.</t>
+  </si>
+  <si>
+    <t>Фактически  все заново. Вопрос по кнопке закрытия в диалоге!!!</t>
+  </si>
+  <si>
+    <t>Форма добавления, редактирования и удаления ед.изм</t>
+  </si>
+  <si>
+    <t>Форма списка единиц измерений из меню монитора. Ее просто нет.!?</t>
   </si>
 </sst>
 </file>
@@ -581,7 +584,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -881,12 +884,12 @@
       </c>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E13" s="1">
         <v>5</v>
@@ -898,12 +901,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C14" s="1">
         <v>11</v>
@@ -912,27 +915,41 @@
         <v>5</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+    <row r="15" spans="1:11" s="10" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
         <v>13</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="1">
-        <v>5</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="3" t="s">
+      <c r="B15" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9">
+        <v>5</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="10" t="s">
         <v>10</v>
+      </c>
+      <c r="H15" s="11">
+        <v>43135</v>
+      </c>
+      <c r="I15" s="11">
+        <v>43135</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -940,13 +957,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E16" s="1">
         <v>5</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>10</v>
@@ -957,7 +974,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C17" s="1">
         <v>14</v>
@@ -966,7 +983,7 @@
         <v>5</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>4</v>
@@ -980,7 +997,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -988,7 +1005,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
@@ -1003,7 +1020,7 @@
       <c r="I19" s="16"/>
       <c r="J19" s="16"/>
       <c r="K19" s="20" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
   <si>
     <t>Задача</t>
   </si>
@@ -73,9 +73,6 @@
     <t>Выполнено</t>
   </si>
   <si>
-    <t>В работе</t>
-  </si>
-  <si>
     <t>Проверка на версию браузера</t>
   </si>
   <si>
@@ -146,13 +143,19 @@
   </si>
   <si>
     <t>Форма списка единиц измерений из меню монитора. Ее просто нет.!?</t>
+  </si>
+  <si>
+    <t>в работе</t>
+  </si>
+  <si>
+    <t>Диалог в диалоге (выбор групп ед.измерения)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,8 +180,16 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -201,6 +212,11 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -211,12 +227,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -260,9 +277,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -278,9 +292,28 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="3" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="3" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Акцент1" xfId="1" builtinId="29"/>
+    <cellStyle name="Нейтральный" xfId="3" builtinId="28"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Плохой" xfId="2" builtinId="27"/>
   </cellStyles>
@@ -583,8 +616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,22 +636,22 @@
   <sheetData>
     <row r="1" spans="1:11" s="5" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>3</v>
@@ -649,7 +682,7 @@
         <v>5</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>4</v>
@@ -749,14 +782,14 @@
       <c r="H7" s="11">
         <v>43121</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="11">
         <v>43128</v>
       </c>
-      <c r="J7" s="11" t="s">
-        <v>17</v>
+      <c r="J7" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="10" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
@@ -772,7 +805,7 @@
         <v>3</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>10</v>
@@ -793,13 +826,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9" s="1">
         <v>4</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>4</v>
@@ -810,7 +843,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -818,7 +851,7 @@
         <v>5</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>10</v>
@@ -833,7 +866,7 @@
         <v>16</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -841,7 +874,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11" s="1">
         <v>5</v>
@@ -858,7 +891,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="9">
         <v>5</v>
@@ -868,7 +901,7 @@
         <v>3</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>10</v>
@@ -889,36 +922,47 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E13" s="1">
         <v>5</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+    <row r="14" spans="1:11" s="23" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="20">
         <v>12</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="1">
+      <c r="B14" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="22">
         <v>11</v>
       </c>
-      <c r="E14" s="1">
-        <v>5</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="D14" s="22"/>
+      <c r="E14" s="22">
+        <v>5</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="23" t="s">
         <v>10</v>
+      </c>
+      <c r="H14" s="25">
+        <v>43142</v>
+      </c>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="K14" s="24" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="10" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
@@ -926,7 +970,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -934,7 +978,7 @@
         <v>5</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G15" s="10" t="s">
         <v>10</v>
@@ -949,7 +993,7 @@
         <v>16</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -957,13 +1001,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="1">
+        <v>5</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="E16" s="1">
-        <v>5</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>10</v>
@@ -974,7 +1018,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" s="1">
         <v>14</v>
@@ -983,7 +1027,7 @@
         <v>5</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>4</v>
@@ -997,30 +1041,30 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="15">
+        <v>17</v>
+      </c>
+      <c r="B19" s="16" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="16">
-        <v>17</v>
-      </c>
-      <c r="B19" s="17" t="s">
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17">
+        <v>5</v>
+      </c>
+      <c r="F19" s="17"/>
+      <c r="G19" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="19" t="s">
         <v>35</v>
-      </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18">
-        <v>5</v>
-      </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="20" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
   <si>
     <t>Задача</t>
   </si>
@@ -149,6 +149,19 @@
   </si>
   <si>
     <t>Диалог в диалоге (выбор групп ед.измерения)</t>
+  </si>
+  <si>
+    <t>DataTable - при обновлении(пагинация, фильтр, сортировка и и т.п.) полностью изменяентся DOM, т.е. фисированные обработчики не подключаются автоматически</t>
+  </si>
+  <si>
+    <t>Проблема: рефакторинг работы с DataTable - невидимые строки в больших списках  при пагинации исключены из DOM, поэтому обработчики на строках не подключены</t>
+  </si>
+  <si>
+    <t>Индикатор загрузчик loader перед обновлением контента</t>
+  </si>
+  <si>
+    <t>Багиров
+Орешников</t>
   </si>
 </sst>
 </file>
@@ -181,15 +194,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -212,11 +226,6 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -227,13 +236,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -292,28 +300,12 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="3" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="3" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="3">
     <cellStyle name="Акцент1" xfId="1" builtinId="29"/>
-    <cellStyle name="Нейтральный" xfId="3" builtinId="28"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Плохой" xfId="2" builtinId="27"/>
   </cellStyles>
@@ -614,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -785,7 +777,7 @@
       <c r="I7" s="11">
         <v>43128</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="20" t="s">
         <v>16</v>
       </c>
       <c r="K7" s="13" t="s">
@@ -816,7 +808,7 @@
       <c r="I8" s="11">
         <v>43114</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="20" t="s">
         <v>16</v>
       </c>
       <c r="K8" s="13"/>
@@ -862,7 +854,7 @@
       <c r="I10" s="11">
         <v>43121</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J10" s="20" t="s">
         <v>16</v>
       </c>
       <c r="K10" s="13" t="s">
@@ -912,56 +904,72 @@
       <c r="I12" s="11">
         <v>43134</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="J12" s="20" t="s">
         <v>16</v>
       </c>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+    <row r="13" spans="1:11" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
         <v>11</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="1">
-        <v>5</v>
-      </c>
-      <c r="F13" s="1" t="s">
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9">
+        <v>5</v>
+      </c>
+      <c r="F13" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" s="23" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20">
+      <c r="H13" s="11">
+        <v>43134</v>
+      </c>
+      <c r="I13" s="11">
+        <v>43148</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
         <v>12</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C14" s="9">
         <v>11</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22">
-        <v>5</v>
-      </c>
-      <c r="F14" s="22" t="s">
+      <c r="D14" s="9"/>
+      <c r="E14" s="9">
+        <v>5</v>
+      </c>
+      <c r="F14" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="23" t="s">
+      <c r="G14" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="25">
-        <v>43142</v>
-      </c>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="K14" s="24" t="s">
+      <c r="H14" s="11">
+        <v>43134</v>
+      </c>
+      <c r="I14" s="11">
+        <v>43148</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="13" t="s">
         <v>41</v>
       </c>
     </row>
@@ -989,7 +997,7 @@
       <c r="I15" s="11">
         <v>43135</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="J15" s="20" t="s">
         <v>16</v>
       </c>
       <c r="K15" s="13" t="s">
@@ -1065,6 +1073,46 @@
       <c r="J19" s="15"/>
       <c r="K19" s="19" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="1">
+        <v>3</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="12">
+        <v>43155</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="1">
+        <v>3</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" s="12">
+        <v>43155</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="49">
   <si>
     <t>Задача</t>
   </si>
@@ -162,6 +162,15 @@
   <si>
     <t>Багиров
 Орешников</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рефакторинг: Ед.изм. И гр.ед.изм. Редактирование, удаление и добавление строк в журналах без перезагрузки страницы. Работа с компонентом DataTable на клиенте </t>
+  </si>
+  <si>
+    <t>выполнено</t>
+  </si>
+  <si>
+    <t>jQuery процедуры. Пока локализация для конкретных журналов</t>
   </si>
 </sst>
 </file>
@@ -606,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1075,25 +1084,34 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
+    <row r="20" spans="1:11" s="10" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
         <v>18</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="1">
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9">
         <v>3</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="F20" s="9">
+        <v>2</v>
+      </c>
+      <c r="G20" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H20" s="11">
         <v>43155</v>
       </c>
-      <c r="J20" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="I20" s="11">
+        <v>43149</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K20" s="13"/>
     </row>
     <row r="21" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
@@ -1113,6 +1131,37 @@
       </c>
       <c r="J21" s="4" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="10" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>20</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9">
+        <v>4</v>
+      </c>
+      <c r="F22" s="9">
+        <v>16</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="11">
+        <v>43155</v>
+      </c>
+      <c r="I22" s="11">
+        <v>43155</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K22" s="13" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="49">
   <si>
     <t>Задача</t>
   </si>
@@ -145,9 +145,6 @@
     <t>Форма списка единиц измерений из меню монитора. Ее просто нет.!?</t>
   </si>
   <si>
-    <t>в работе</t>
-  </si>
-  <si>
     <t>Диалог в диалоге (выбор групп ед.измерения)</t>
   </si>
   <si>
@@ -171,6 +168,9 @@
   </si>
   <si>
     <t>jQuery процедуры. Пока локализация для конкретных журналов</t>
+  </si>
+  <si>
+    <t>Требует обсуждения. Сейчас основной контент становится видимым после завершения загрузки страницы. Это сглаживает работу плагинов.</t>
   </si>
 </sst>
 </file>
@@ -618,7 +618,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -946,7 +946,7 @@
         <v>16</v>
       </c>
       <c r="K13" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -979,7 +979,7 @@
         <v>16</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="10" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
@@ -1089,7 +1089,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -1109,7 +1109,7 @@
         <v>43149</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K20" s="13"/>
     </row>
@@ -1118,19 +1118,25 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E21" s="1">
         <v>3</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H21" s="12">
         <v>43155</v>
       </c>
+      <c r="I21" s="12">
+        <v>43155</v>
+      </c>
       <c r="J21" s="4" t="s">
-        <v>40</v>
+        <v>46</v>
+      </c>
+      <c r="K21" s="14" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="10" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1138,7 +1144,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -1158,10 +1164,10 @@
         <v>43155</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K22" s="13" t="s">
         <v>47</v>
-      </c>
-      <c r="K22" s="13" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="51">
   <si>
     <t>Задача</t>
   </si>
@@ -171,6 +171,12 @@
   </si>
   <si>
     <t>Требует обсуждения. Сейчас основной контент становится видимым после завершения загрузки страницы. Это сглаживает работу плагинов.</t>
+  </si>
+  <si>
+    <t>Добавить отображение итоговых параметров на страницу редактирования параметров измерения на дату</t>
+  </si>
+  <si>
+    <t>Требует стилей</t>
   </si>
 </sst>
 </file>
@@ -212,7 +218,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -235,6 +241,12 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -250,7 +262,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -311,6 +323,24 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -615,10 +645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1113,29 +1143,32 @@
       </c>
       <c r="K20" s="13"/>
     </row>
-    <row r="21" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+    <row r="21" spans="1:11" s="26" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="21">
         <v>19</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="1">
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23">
         <v>3</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="F21" s="23"/>
+      <c r="G21" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H21" s="24">
         <v>43155</v>
       </c>
-      <c r="I21" s="12">
+      <c r="I21" s="24">
         <v>43155</v>
       </c>
-      <c r="J21" s="4" t="s">
+      <c r="J21" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="K21" s="14" t="s">
+      <c r="K21" s="25" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1168,6 +1201,37 @@
       </c>
       <c r="K22" s="13" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <v>21</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9">
+        <v>4</v>
+      </c>
+      <c r="F23" s="9">
+        <v>2</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="11">
+        <v>43156</v>
+      </c>
+      <c r="I23" s="11">
+        <v>43156</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K23" s="13" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="52">
   <si>
     <t>Задача</t>
   </si>
@@ -115,9 +115,6 @@
     <t>Аналитика - получения табличных значений по монитору за период</t>
   </si>
   <si>
-    <t>2.0</t>
-  </si>
-  <si>
     <t>Аналитика - графическое представление данных по выбранным параметрам мониторов</t>
   </si>
   <si>
@@ -177,13 +174,19 @@
   </si>
   <si>
     <t>Требует стилей</t>
+  </si>
+  <si>
+    <t>В РАБОТЕ</t>
+  </si>
+  <si>
+    <t>3.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,8 +220,16 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -247,6 +258,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -257,12 +273,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -342,11 +359,30 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="3" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="3" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="6" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Акцент1" xfId="1" builtinId="29"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Плохой" xfId="2" builtinId="27"/>
+    <cellStyle name="Хороший" xfId="3" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -647,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -953,7 +989,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -976,7 +1012,7 @@
         <v>16</v>
       </c>
       <c r="K13" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -984,7 +1020,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="9">
         <v>11</v>
@@ -1009,7 +1045,7 @@
         <v>16</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="10" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
@@ -1017,7 +1053,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -1040,32 +1076,42 @@
         <v>16</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="30" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="27">
         <v>14</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="1">
-        <v>5</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" s="3" t="s">
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29">
+        <v>5</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="30" t="s">
         <v>10</v>
       </c>
+      <c r="H16" s="31">
+        <v>43170</v>
+      </c>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="K16" s="32"/>
     </row>
     <row r="17" spans="1:11" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" s="1">
         <v>14</v>
@@ -1074,7 +1120,7 @@
         <v>5</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>4</v>
@@ -1088,7 +1134,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1096,7 +1142,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
@@ -1111,7 +1157,7 @@
       <c r="I19" s="15"/>
       <c r="J19" s="15"/>
       <c r="K19" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="10" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1119,7 +1165,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -1139,7 +1185,7 @@
         <v>43149</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K20" s="13"/>
     </row>
@@ -1148,7 +1194,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C21" s="23"/>
       <c r="D21" s="23"/>
@@ -1157,7 +1203,7 @@
       </c>
       <c r="F21" s="23"/>
       <c r="G21" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H21" s="24">
         <v>43155</v>
@@ -1166,10 +1212,10 @@
         <v>43155</v>
       </c>
       <c r="J21" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K21" s="25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="10" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1177,7 +1223,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -1197,10 +1243,10 @@
         <v>43155</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K22" s="13" t="s">
         <v>46</v>
-      </c>
-      <c r="K22" s="13" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -1208,7 +1254,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -1228,10 +1274,10 @@
         <v>43156</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K23" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="51">
   <si>
     <t>Задача</t>
   </si>
@@ -174,9 +174,6 @@
   </si>
   <si>
     <t>Требует стилей</t>
-  </si>
-  <si>
-    <t>В РАБОТЕ</t>
   </si>
   <si>
     <t>3.0</t>
@@ -186,7 +183,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,16 +217,8 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -258,11 +247,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -273,13 +257,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -359,30 +342,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="3" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="3" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="6" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="3">
     <cellStyle name="Акцент1" xfId="1" builtinId="29"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Плохой" xfId="2" builtinId="27"/>
-    <cellStyle name="Хороший" xfId="3" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -683,8 +647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1079,32 +1043,34 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="30" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="27">
+    <row r="16" spans="1:11" s="10" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
         <v>14</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29">
-        <v>5</v>
-      </c>
-      <c r="F16" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="G16" s="30" t="s">
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9">
+        <v>5</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H16" s="31">
+      <c r="H16" s="11">
         <v>43170</v>
       </c>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="K16" s="32"/>
+      <c r="I16" s="11">
+        <v>43168</v>
+      </c>
+      <c r="J16" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" s="13"/>
     </row>
     <row r="17" spans="1:11" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="52">
   <si>
     <t>Задача</t>
   </si>
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t>3.0</t>
+  </si>
+  <si>
+    <t>В работе</t>
   </si>
 </sst>
 </file>
@@ -648,7 +651,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1090,6 +1093,9 @@
       </c>
       <c r="G17" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="K17" s="14">
         <v>7</v>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="57">
   <si>
     <t>Задача</t>
   </si>
@@ -180,6 +180,21 @@
   </si>
   <si>
     <t>В работе</t>
+  </si>
+  <si>
+    <t>Заготовка сделана(Багиров 18.03)</t>
+  </si>
+  <si>
+    <t>Личный кабинет пользователя (локальные установки).Проработать требования</t>
+  </si>
+  <si>
+    <t>Личный кабинет пользователя (разработка по требованиям)</t>
+  </si>
+  <si>
+    <t>Рефакторинг</t>
+  </si>
+  <si>
+    <t>ТЕСТИРОВАНИЕ функционала</t>
   </si>
 </sst>
 </file>
@@ -265,7 +280,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -344,6 +359,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -648,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1075,30 +1093,35 @@
       </c>
       <c r="K16" s="13"/>
     </row>
-    <row r="17" spans="1:11" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+    <row r="17" spans="1:11" s="18" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15">
         <v>15</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="17">
         <v>14</v>
       </c>
-      <c r="E17" s="1">
-        <v>5</v>
-      </c>
-      <c r="F17" s="1" t="s">
+      <c r="D17" s="17"/>
+      <c r="E17" s="17">
+        <v>5</v>
+      </c>
+      <c r="F17" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J17" s="4" t="s">
+      <c r="G17" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="27">
+        <v>43184</v>
+      </c>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="K17" s="14">
-        <v>7</v>
+      <c r="K17" s="19" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1250,6 +1273,56 @@
       </c>
       <c r="K23" s="13" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H24" s="12">
+        <v>43184</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="2">
+        <v>23</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" s="12">
+        <v>43184</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="58">
   <si>
     <t>Задача</t>
   </si>
@@ -185,16 +185,19 @@
     <t>Заготовка сделана(Багиров 18.03)</t>
   </si>
   <si>
-    <t>Личный кабинет пользователя (локальные установки).Проработать требования</t>
-  </si>
-  <si>
-    <t>Личный кабинет пользователя (разработка по требованиям)</t>
-  </si>
-  <si>
     <t>Рефакторинг</t>
   </si>
   <si>
     <t>ТЕСТИРОВАНИЕ функционала</t>
+  </si>
+  <si>
+    <t>Логирование событий и ошибок</t>
+  </si>
+  <si>
+    <t>Учетная запись пользователя. Градация ролей пользователя по правам.  (локальные установки в зависимости от ролей). Проработать требования</t>
+  </si>
+  <si>
+    <t>Учетная запись пользователя (разработка по требованиям)</t>
   </si>
 </sst>
 </file>
@@ -666,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1124,12 +1127,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>32</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1275,12 +1281,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>43</v>
@@ -1294,7 +1300,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C25" s="2">
         <v>23</v>
@@ -1311,7 +1317,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -1319,10 +1325,21 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="59">
   <si>
     <t>Задача</t>
   </si>
@@ -198,6 +198,9 @@
   </si>
   <si>
     <t>Учетная запись пользователя (разработка по требованиям)</t>
+  </si>
+  <si>
+    <t>в работе</t>
   </si>
 </sst>
 </file>
@@ -672,7 +675,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1310,6 +1313,9 @@
       </c>
       <c r="H25" s="12">
         <v>43184</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="61">
   <si>
     <t>Задача</t>
   </si>
@@ -201,13 +201,21 @@
   </si>
   <si>
     <t>в работе</t>
+  </si>
+  <si>
+    <t>1.Логин - это всегда email.Создается и не редактируется
+2.При изменении пароля вводится подтверждение - пароль еще раз в отдельном поле.
+3.После любого редактироавния учетной записи, проиходит переаутентификация и текущая страница переоткрывается.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лимиты на ресурсы для ролей и пользователей. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,8 +249,16 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -271,6 +287,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -281,12 +302,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -369,11 +391,30 @@
     <xf numFmtId="14" fontId="2" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="3" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="6" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="3" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Акцент1" xfId="1" builtinId="29"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Плохой" xfId="2" builtinId="27"/>
+    <cellStyle name="Хороший" xfId="3" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -672,10 +713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1298,24 +1339,33 @@
         <v>43184</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
+    <row r="25" spans="1:11" s="10" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
         <v>24</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="8">
         <v>23</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H25" s="12">
+      <c r="H25" s="11">
         <v>43184</v>
       </c>
-      <c r="J25" s="4" t="s">
-        <v>58</v>
+      <c r="I25" s="11">
+        <v>43183</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K25" s="13" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1347,6 +1397,31 @@
       <c r="G28" s="3" t="s">
         <v>4</v>
       </c>
+    </row>
+    <row r="29" spans="1:11" s="33" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="28">
+        <v>28</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="30">
+        <v>24</v>
+      </c>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" s="31">
+        <v>43191</v>
+      </c>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="K29" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="27795" windowHeight="12330"/>
+    <workbookView xWindow="480" yWindow="94" windowWidth="27797" windowHeight="12334"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="63">
   <si>
     <t>Задача</t>
   </si>
@@ -209,6 +209,12 @@
   </si>
   <si>
     <t xml:space="preserve">Лимиты на ресурсы для ролей и пользователей. </t>
+  </si>
+  <si>
+    <t>При формировании списков параметров для отображения на графике надо исключить повторное добавление параметра в список</t>
+  </si>
+  <si>
+    <t>К проекту подключен пакет log4net. Логирование пишется в файл c:\windows\temp\noteplot.log</t>
   </si>
 </sst>
 </file>
@@ -713,27 +719,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="D22" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="43.5703125" style="2" customWidth="1"/>
-    <col min="3" max="4" width="16.42578125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="17.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="29.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.85546875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="22.42578125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="71.85546875" style="14" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="4.69140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="43.53515625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="16.3828125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="17.69140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="29.3046875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="19.84375" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.84375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="22.3828125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="71.84375" style="14" customWidth="1"/>
+    <col min="12" max="16384" width="9.15234375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="5" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>20</v>
       </c>
@@ -768,7 +774,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="10" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="10" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -797,7 +803,7 @@
       </c>
       <c r="K3" s="13"/>
     </row>
-    <row r="4" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -818,7 +824,7 @@
       </c>
       <c r="I4" s="12"/>
     </row>
-    <row r="5" spans="1:11" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -838,7 +844,7 @@
         <v>43131</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -858,7 +864,7 @@
         <v>43131</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="10" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="10" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -891,7 +897,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="10" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="10" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -920,7 +926,7 @@
       </c>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -937,7 +943,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="10" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="10" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -968,7 +974,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -985,7 +991,7 @@
         <v>43128</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="7">
         <v>10</v>
       </c>
@@ -1016,7 +1022,7 @@
       </c>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="10" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -1047,7 +1053,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="10" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A14" s="7">
         <v>12</v>
       </c>
@@ -1080,7 +1086,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="10" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="10" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="7">
         <v>13</v>
       </c>
@@ -1111,7 +1117,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="10" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="10" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="7">
         <v>14</v>
       </c>
@@ -1140,7 +1146,7 @@
       </c>
       <c r="K16" s="13"/>
     </row>
-    <row r="17" spans="1:11" s="18" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="18" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="15">
         <v>15</v>
       </c>
@@ -1171,7 +1177,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4">
         <v>16</v>
       </c>
@@ -1182,7 +1188,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" s="18" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A19" s="15">
         <v>17</v>
       </c>
@@ -1205,7 +1211,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="10" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" s="10" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="7">
         <v>18</v>
       </c>
@@ -1234,7 +1240,7 @@
       </c>
       <c r="K20" s="13"/>
     </row>
-    <row r="21" spans="1:11" s="26" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" s="26" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="21">
         <v>19</v>
       </c>
@@ -1263,7 +1269,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="10" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" s="10" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="7">
         <v>20</v>
       </c>
@@ -1294,7 +1300,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" s="10" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A23" s="7">
         <v>21</v>
       </c>
@@ -1325,7 +1331,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -1339,7 +1345,7 @@
         <v>43184</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="10" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" s="10" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -1368,7 +1374,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -1376,7 +1382,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -1387,7 +1393,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -1397,8 +1403,14 @@
       <c r="G28" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" s="33" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I28" s="12">
+        <v>43193</v>
+      </c>
+      <c r="K28" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="33" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="28">
         <v>28</v>
       </c>
@@ -1422,6 +1434,14 @@
         <v>58</v>
       </c>
       <c r="K29" s="32"/>
+    </row>
+    <row r="30" spans="1:11" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1435,7 +1455,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1447,7 +1467,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="94" windowWidth="27797" windowHeight="12334"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="27795" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="план" sheetId="1" r:id="rId1"/>
+    <sheet name="Рефакторинг" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="67">
   <si>
     <t>Задача</t>
   </si>
@@ -215,6 +215,21 @@
   </si>
   <si>
     <t>К проекту подключен пакет log4net. Логирование пишется в файл c:\windows\temp\noteplot.log</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Новый файл noteplot.css
+Добавлены стили для диалогов с вертикальной компоновкой элементов ввода.
+Для совместимости, временно, чтобы не менять стили для всего проекта, добавлен класс np-ui-input. </t>
+  </si>
+  <si>
+    <t>Модули</t>
+  </si>
+  <si>
+    <t>LoginView.cshtml</t>
+  </si>
+  <si>
+    <t>17,
+25</t>
   </si>
 </sst>
 </file>
@@ -721,25 +736,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D22" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.69140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="43.53515625" style="2" customWidth="1"/>
-    <col min="3" max="4" width="16.3828125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="17.69140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="29.3046875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="19.84375" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.84375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="22.3828125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="71.84375" style="14" customWidth="1"/>
-    <col min="12" max="16384" width="9.15234375" style="3"/>
+    <col min="1" max="1" width="4.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="43.5703125" style="2" customWidth="1"/>
+    <col min="3" max="4" width="16.42578125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="17.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="29.28515625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="71.85546875" style="14" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" s="5" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>20</v>
       </c>
@@ -774,7 +789,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="10" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" s="10" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -803,7 +818,7 @@
       </c>
       <c r="K3" s="13"/>
     </row>
-    <row r="4" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -824,7 +839,7 @@
       </c>
       <c r="I4" s="12"/>
     </row>
-    <row r="5" spans="1:11" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -844,7 +859,7 @@
         <v>43131</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -864,7 +879,7 @@
         <v>43131</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="10" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" s="10" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -897,7 +912,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="10" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" s="10" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -926,7 +941,7 @@
       </c>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -943,7 +958,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="10" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" s="10" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -974,7 +989,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -991,7 +1006,7 @@
         <v>43128</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>10</v>
       </c>
@@ -1022,7 +1037,7 @@
       </c>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" s="10" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -1053,7 +1068,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="10" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>12</v>
       </c>
@@ -1086,7 +1101,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="10" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" s="10" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>13</v>
       </c>
@@ -1117,7 +1132,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="10" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" s="10" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>14</v>
       </c>
@@ -1146,7 +1161,7 @@
       </c>
       <c r="K16" s="13"/>
     </row>
-    <row r="17" spans="1:11" s="18" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:11" s="18" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <v>15</v>
       </c>
@@ -1177,7 +1192,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>16</v>
       </c>
@@ -1188,7 +1203,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="18" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:11" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
         <v>17</v>
       </c>
@@ -1211,7 +1226,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="10" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" s="10" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>18</v>
       </c>
@@ -1240,7 +1255,7 @@
       </c>
       <c r="K20" s="13"/>
     </row>
-    <row r="21" spans="1:11" s="26" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:11" s="26" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21">
         <v>19</v>
       </c>
@@ -1269,7 +1284,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="10" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:11" s="10" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>20</v>
       </c>
@@ -1300,7 +1315,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="10" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:11" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>21</v>
       </c>
@@ -1331,7 +1346,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -1345,7 +1360,7 @@
         <v>43184</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="10" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:11" s="10" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -1374,15 +1389,18 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:11" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G26" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -1393,7 +1411,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -1410,7 +1428,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="33" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:11" s="33" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="28">
         <v>28</v>
       </c>
@@ -1435,7 +1453,7 @@
       </c>
       <c r="K29" s="32"/>
     </row>
-    <row r="30" spans="1:11" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -1451,13 +1469,41 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="80.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="55.7109375" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1467,7 +1513,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="27795" windowHeight="12330" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="27795" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="план" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="67">
   <si>
     <t>Задача</t>
   </si>
@@ -736,8 +736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1453,13 +1453,28 @@
       </c>
       <c r="K29" s="32"/>
     </row>
-    <row r="30" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
+    <row r="30" spans="1:11" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="7">
         <v>29</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="8" t="s">
         <v>61</v>
       </c>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30" s="7"/>
+      <c r="I30" s="11">
+        <v>43198</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K30" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1471,8 +1486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="72">
   <si>
     <t>Задача</t>
   </si>
@@ -230,6 +230,30 @@
   <si>
     <t>17,
 25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Багиров
+</t>
+  </si>
+  <si>
+    <t>Страница: Редактирование измерения
+MonitoringEdit.cshtml
+MonitoringParamList.cshtml(Components)
+MonitorTotalParamList.cshtml(Components)
+Стилизация и рефакторинг ЧАСТЬ 1</t>
+  </si>
+  <si>
+    <t>Страница: Редактирование измерения
+MonitoringEdit.cshtml
+MonitoringParamList.cshtml(Components)
+MonitorTotalParamList.cshtml(Components)
+Стилизация и рефакторинг  ЧАСТЬ 2</t>
+  </si>
+  <si>
+    <t>Выполнена предварительная стилизация (noteplot.css)</t>
+  </si>
+  <si>
+    <t>ВЫПОЛНЕНО</t>
   </si>
 </sst>
 </file>
@@ -734,10 +758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1475,6 +1499,49 @@
         <v>45</v>
       </c>
       <c r="K30" s="13"/>
+    </row>
+    <row r="31" spans="1:11" s="10" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="7">
+        <v>30</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H31" s="11">
+        <v>43219</v>
+      </c>
+      <c r="I31" s="11">
+        <v>43219</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="K31" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="1">
+        <v>30</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="74">
   <si>
     <t>Задача</t>
   </si>
@@ -254,6 +254,12 @@
   </si>
   <si>
     <t>ВЫПОЛНЕНО</t>
+  </si>
+  <si>
+    <t>Страница: Группы параметров (+ редактирование) - рефакторинг, вставка, удаление и редактирование без переоткрытия страницы. + коррекция для страниц : ед.изм и группы ед.изм. - учет переноса кнопок в начало строк.</t>
+  </si>
+  <si>
+    <t>Замечание: При изменении отображения кнопок см. на исходный код</t>
   </si>
 </sst>
 </file>
@@ -758,10 +764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1527,21 +1533,53 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
+    <row r="32" spans="1:11" s="18" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A32" s="15">
         <v>31</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="17">
         <v>30</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="19"/>
+    </row>
+    <row r="33" spans="1:11" s="10" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A33" s="7">
+        <v>32</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33" s="11">
+        <v>43225</v>
+      </c>
+      <c r="I33" s="11">
+        <v>43225</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K33" s="13" t="s">
+        <v>73</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="75">
   <si>
     <t>Задача</t>
   </si>
@@ -260,6 +260,13 @@
   </si>
   <si>
     <t>Замечание: При изменении отображения кнопок см. на исходный код</t>
+  </si>
+  <si>
+    <t>Стилизация страниц:
+Типы  значений,
+Группы ед.изм., 
+Единицы измерения,
+Группы параметров</t>
   </si>
 </sst>
 </file>
@@ -764,10 +771,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1533,7 +1540,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="18" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" s="18" customFormat="1" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
         <v>31</v>
       </c>
@@ -1580,6 +1587,27 @@
       <c r="K33" s="13" t="s">
         <v>73</v>
       </c>
+    </row>
+    <row r="34" spans="1:11" s="18" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="15">
+        <v>33</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="17">
+        <v>32</v>
+      </c>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -262,11 +262,12 @@
     <t>Замечание: При изменении отображения кнопок см. на исходный код</t>
   </si>
   <si>
-    <t>Стилизация страниц:
+    <t>Стилизация страниц(журнало):
 Типы  значений,
 Группы ед.изм., 
 Единицы измерения,
-Группы параметров</t>
+Группы параметров,
+Параметры измерения</t>
   </si>
 </sst>
 </file>
@@ -774,7 +775,7 @@
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -262,12 +262,13 @@
     <t>Замечание: При изменении отображения кнопок см. на исходный код</t>
   </si>
   <si>
-    <t>Стилизация страниц(журнало):
+    <t>Стилизация страниц(журналы):
 Типы  значений,
 Группы ед.изм., 
 Единицы измерения,
 Группы параметров,
-Параметры измерения</t>
+Параметры измерения,
+Пакеты параметров</t>
   </si>
 </sst>
 </file>
@@ -1589,7 +1590,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="18" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" s="18" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A34" s="15">
         <v>33</v>
       </c>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="78">
   <si>
     <t>Задача</t>
   </si>
@@ -269,6 +269,17 @@
 Группы параметров,
 Параметры измерения,
 Пакеты параметров</t>
+  </si>
+  <si>
+    <t>Страница: PacketEdit - редактирование пакета
+Стилизация компоновки</t>
+  </si>
+  <si>
+    <t>CSS - настроена компоновка элементов</t>
+  </si>
+  <si>
+    <t>Страница: PacketEdit 
+Окончательная стилизация</t>
   </si>
 </sst>
 </file>
@@ -773,10 +784,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1610,6 +1621,54 @@
       <c r="I34" s="15"/>
       <c r="J34" s="15"/>
       <c r="K34" s="19"/>
+    </row>
+    <row r="35" spans="1:11" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="7">
+        <v>34</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H35" s="11">
+        <v>43231</v>
+      </c>
+      <c r="I35" s="11">
+        <v>43231</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K35" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" s="18" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="15">
+        <v>35</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="17">
+        <v>34</v>
+      </c>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="81">
   <si>
     <t>Задача</t>
   </si>
@@ -279,6 +279,17 @@
   </si>
   <si>
     <t>Страница: PacketEdit 
+Окончательная стилизация</t>
+  </si>
+  <si>
+    <t>Страница: ParameterEdit - редактирование параметра.
+Стилизация компоновки</t>
+  </si>
+  <si>
+    <t>Настроить смещения блоков, таблиц, отсупы, границы и т.п.</t>
+  </si>
+  <si>
+    <t>Страница: ParameterEdit 
 Окончательная стилизация</t>
   </si>
 </sst>
@@ -784,10 +795,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1439,7 +1450,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -1668,7 +1679,59 @@
       <c r="H36" s="15"/>
       <c r="I36" s="15"/>
       <c r="J36" s="15"/>
-      <c r="K36" s="19"/>
+      <c r="K36" s="19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="7">
+        <v>36</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H37" s="11">
+        <v>43232</v>
+      </c>
+      <c r="I37" s="11">
+        <v>43232</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K37" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" s="18" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="15">
+        <v>37</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" s="17">
+        <v>36</v>
+      </c>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="19" t="s">
+        <v>79</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="82">
   <si>
     <t>Задача</t>
   </si>
@@ -291,6 +291,9 @@
   <si>
     <t>Страница: ParameterEdit 
 Окончательная стилизация</t>
+  </si>
+  <si>
+    <t>Страница редактирования монитора - шаблона измекрения. Стилизация компоновки.</t>
   </si>
 </sst>
 </file>
@@ -795,10 +798,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1731,6 +1734,23 @@
       <c r="J38" s="15"/>
       <c r="K38" s="19" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H39" s="12">
+        <v>43233</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="83">
   <si>
     <t>Задача</t>
   </si>
@@ -294,6 +294,9 @@
   </si>
   <si>
     <t>Страница редактирования монитора - шаблона измекрения. Стилизация компоновки.</t>
+  </si>
+  <si>
+    <t>Страница редактирования монитора - шаблона измекрения. Окончательная стилизация.</t>
   </si>
 </sst>
 </file>
@@ -798,10 +801,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1736,21 +1739,52 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
+    <row r="39" spans="1:11" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="7">
         <v>38</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="G39" s="3" t="s">
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H39" s="12">
+      <c r="H39" s="11">
         <v>43233</v>
       </c>
-      <c r="J39" s="4" t="s">
-        <v>51</v>
+      <c r="I39" s="11">
+        <v>43238</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K39" s="13"/>
+    </row>
+    <row r="40" spans="1:11" s="18" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="15">
+        <v>39</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="17">
+        <v>38</v>
+      </c>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="19" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="87">
   <si>
     <t>Задача</t>
   </si>
@@ -297,6 +297,20 @@
   </si>
   <si>
     <t>Страница редактирования монитора - шаблона измекрения. Окончательная стилизация.</t>
+  </si>
+  <si>
+    <t>Стилизация компоновки диалогов:
+Форма регистрации(LoginRegistration)
+и форма учетной записи (UserAccount)</t>
+  </si>
+  <si>
+    <t>noteplot.css - class="np-fVrtLayout"</t>
+  </si>
+  <si>
+    <t>Доработка стилей для диалогов. (padding, marging, &amp; etc.)</t>
+  </si>
+  <si>
+    <t>см.noteplot.css - class="np-fVrtLayout"</t>
   </si>
 </sst>
 </file>
@@ -801,10 +815,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1785,6 +1799,50 @@
       <c r="J40" s="15"/>
       <c r="K40" s="19" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="7">
+        <v>40</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41" s="11">
+        <v>43240</v>
+      </c>
+      <c r="I41" s="11">
+        <v>43240</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K41" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="1">
+        <v>40</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K42" s="14" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="89">
   <si>
     <t>Задача</t>
   </si>
@@ -311,6 +311,14 @@
   </si>
   <si>
     <t>см.noteplot.css - class="np-fVrtLayout"</t>
+  </si>
+  <si>
+    <t>Стилизация компоновки диалогов:
+Форма редактирования группы ед.изм.(UnitGroupEdit),форма редактирования ед.изм (UnitEdit)
+и форма редактирования групп параметров  (ParemeterGroup\Edit)</t>
+  </si>
+  <si>
+    <t>40, 42</t>
   </si>
 </sst>
 </file>
@@ -815,10 +823,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K42"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1828,20 +1836,53 @@
         <v>84</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
+    <row r="42" spans="1:11" s="18" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="15">
         <v>41</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="C42" s="1">
-        <v>40</v>
-      </c>
-      <c r="G42" s="3" t="s">
+      <c r="C42" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="K42" s="14" t="s">
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" s="10" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A43" s="7">
+        <v>42</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H43" s="11">
+        <v>43240</v>
+      </c>
+      <c r="I43" s="11">
+        <v>43240</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K43" s="13" t="s">
         <v>86</v>
       </c>
     </row>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="90">
   <si>
     <t>Задача</t>
   </si>
@@ -319,6 +319,10 @@
   </si>
   <si>
     <t>40, 42</t>
+  </si>
+  <si>
+    <t>см.noteplot.css - class="np-fVrtLayout"
+Диалоговая форма редактирования ед.изм. - кнопка выбора группы - к обс уждению</t>
   </si>
 </sst>
 </file>
@@ -825,8 +829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView tabSelected="1" topLeftCell="C37" workbookViewId="0">
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1856,7 +1860,7 @@
       <c r="I42" s="15"/>
       <c r="J42" s="15"/>
       <c r="K42" s="19" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:11" s="10" customFormat="1" ht="90" x14ac:dyDescent="0.25">

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="94">
   <si>
     <t>Задача</t>
   </si>
@@ -323,6 +323,28 @@
   <si>
     <t>см.noteplot.css - class="np-fVrtLayout"
 Диалоговая форма редактирования ед.изм. - кнопка выбора группы - к обс уждению</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Для того, чтобы исключить элеиенты input из существующих стилей, используется класс 'np-ui-input'
+2.Добавлен класс np-form-row для построчного отображения групп элементов
+3.Используются классы : np-clearfix ; np-column-left ; np-column-1
+4.Добавлены классы ui-widget ui-widget-content, но их ,вероятно, нужно исключить, это к обсуждению... ui-widget изменяет шрифт </t>
+  </si>
+  <si>
+    <t>Стилизация компоновки аналитики:
+Формы "Измерения по монитору",
+"Динамика изменения параметров"
+noteplot.css</t>
+  </si>
+  <si>
+    <t>Доработка стилей:
+Формы "Измерения по монитору",
+"Динамика изменения параметров"
+noteplot.css</t>
+  </si>
+  <si>
+    <t xml:space="preserve">см. 43
+</t>
   </si>
 </sst>
 </file>
@@ -827,10 +849,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C37" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1888,6 +1910,48 @@
       </c>
       <c r="K43" s="13" t="s">
         <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" s="10" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A44" s="7">
+        <v>43</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H44" s="11">
+        <v>43245</v>
+      </c>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K44" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" s="1">
+        <v>43</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K45" s="14" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="95">
   <si>
     <t>Задача</t>
   </si>
@@ -345,6 +345,10 @@
   <si>
     <t xml:space="preserve">см. 43
 </t>
+  </si>
+  <si>
+    <t>Стилизация компоновки:
+Условия выбора в форме "Список измерений"</t>
   </si>
 </sst>
 </file>
@@ -849,10 +853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1952,6 +1956,23 @@
       </c>
       <c r="K45" s="14" t="s">
         <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H46" s="12">
+        <v>43338</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="97">
   <si>
     <t>Задача</t>
   </si>
@@ -349,6 +349,13 @@
   <si>
     <t>Стилизация компоновки:
 Условия выбора в форме "Список измерений"</t>
+  </si>
+  <si>
+    <t>В форму добавлен модуль стилей - доп.стилизация таба</t>
+  </si>
+  <si>
+    <t>Доработка стилей:
+Форма "Список измерений"</t>
   </si>
 </sst>
 </file>
@@ -853,10 +860,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1941,39 +1948,74 @@
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A45" s="4">
+    <row r="45" spans="1:11" s="18" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A45" s="15">
         <v>44</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="17">
         <v>43</v>
       </c>
-      <c r="G45" s="3" t="s">
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="K45" s="14" t="s">
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="19" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A46" s="4">
+    <row r="46" spans="1:11" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A46" s="7">
         <v>45</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H46" s="12">
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H46" s="11">
         <v>43338</v>
       </c>
-      <c r="J46" s="4" t="s">
-        <v>51</v>
-      </c>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K46" s="13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="15">
+        <v>46</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" s="17">
+        <v>45</v>
+      </c>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="100">
   <si>
     <t>Задача</t>
   </si>
@@ -356,6 +356,17 @@
   <si>
     <t>Доработка стилей:
 Форма "Список измерений"</t>
+  </si>
+  <si>
+    <t>Стилизация компоновки для
+всех диалогов выбора(из списков - таблиц)</t>
+  </si>
+  <si>
+    <t>1.Добавлен класс np-dialog-buttons
+2.Добавлен класс np-clear для очищающего div - псевдоэлемент вызывает полосу прокрутки</t>
+  </si>
+  <si>
+    <t>Стилизация таблиц в диалогах выбора</t>
   </si>
 </sst>
 </file>
@@ -860,10 +871,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="I50" sqref="I50"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1940,7 +1951,9 @@
       <c r="H44" s="11">
         <v>43245</v>
       </c>
-      <c r="I44" s="7"/>
+      <c r="I44" s="11">
+        <v>43245</v>
+      </c>
       <c r="J44" s="7" t="s">
         <v>16</v>
       </c>
@@ -1988,7 +2001,9 @@
       <c r="H46" s="11">
         <v>43338</v>
       </c>
-      <c r="I46" s="7"/>
+      <c r="I46" s="11">
+        <v>43338</v>
+      </c>
       <c r="J46" s="7" t="s">
         <v>16</v>
       </c>
@@ -2016,6 +2031,47 @@
       <c r="I47" s="15"/>
       <c r="J47" s="15"/>
       <c r="K47" s="19"/>
+    </row>
+    <row r="48" spans="1:11" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="7">
+        <v>46</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H48" s="11">
+        <v>43338</v>
+      </c>
+      <c r="I48" s="11">
+        <v>43338</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K48" s="13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>47</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" s="1">
+        <v>46</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="101">
   <si>
     <t>Задача</t>
   </si>
@@ -367,6 +367,9 @@
   </si>
   <si>
     <t>Стилизация таблиц в диалогах выбора</t>
+  </si>
+  <si>
+    <t>Русификация DataTables</t>
   </si>
 </sst>
 </file>
@@ -871,10 +874,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2059,7 +2062,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>47</v>
       </c>
@@ -2072,6 +2075,31 @@
       <c r="G49" s="3" t="s">
         <v>4</v>
       </c>
+    </row>
+    <row r="50" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="7">
+        <v>48</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H50" s="11">
+        <v>43339</v>
+      </c>
+      <c r="I50" s="11">
+        <v>43339</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K50" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="27795" windowHeight="12330"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="27795" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="план" sheetId="1" r:id="rId1"/>
-    <sheet name="Рефакторинг" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="По результатам тестирования" sheetId="3" r:id="rId2"/>
+    <sheet name="Рефакторинг" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="107">
   <si>
     <t>Задача</t>
   </si>
@@ -371,12 +371,30 @@
   <si>
     <t>Русификация DataTables</t>
   </si>
+  <si>
+    <t>1.</t>
+  </si>
+  <si>
+    <t>Редактирование измерения - добавить стиль для выделения расчетных и итоговых(по монитору) паарметров. При редактировании основных параметров, данне поля не изменяются, изменения только после записи параметров, т.к. обработка идет на сервере.</t>
+  </si>
+  <si>
+    <t>Печать графика изменения параметров</t>
+  </si>
+  <si>
+    <t>Что можно или планируется сделать</t>
+  </si>
+  <si>
+    <t>Реадактировние измерения, пакета, параметра, монитора. При сохранении данных пользователь возвращается в журнал. Можно оставться в карточке редактирования. ОБСУДИТЬ</t>
+  </si>
+  <si>
+    <t>Изменить стиль меню главного окна. Добавить выделение выделенных пунктов меню.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -413,6 +431,15 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -469,7 +496,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -569,6 +596,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="3" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -876,7 +906,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
@@ -2109,10 +2139,69 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="53.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="34" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2130,7 +2219,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>66</v>
       </c>
@@ -2145,16 +2234,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="план" sheetId="1" r:id="rId1"/>
-    <sheet name="По результатам тестирования" sheetId="3" r:id="rId2"/>
+    <sheet name="Что нужно делать" sheetId="3" r:id="rId2"/>
     <sheet name="Рефакторинг" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="113">
   <si>
     <t>Задача</t>
   </si>
@@ -375,9 +375,6 @@
     <t>1.</t>
   </si>
   <si>
-    <t>Редактирование измерения - добавить стиль для выделения расчетных и итоговых(по монитору) паарметров. При редактировании основных параметров, данне поля не изменяются, изменения только после записи параметров, т.к. обработка идет на сервере.</t>
-  </si>
-  <si>
     <t>Печать графика изменения параметров</t>
   </si>
   <si>
@@ -388,6 +385,27 @@
   </si>
   <si>
     <t>Изменить стиль меню главного окна. Добавить выделение выделенных пунктов меню.</t>
+  </si>
+  <si>
+    <t>сделано c помощью TagHelper, остался стиль</t>
+  </si>
+  <si>
+    <t>Страница "Редактирование измерения" - добавить стиль для выделения расчетных и итоговых(по монитору) паарметров. При редактировании основных параметров, данне поля не изменяются, изменения только после записи параметров, т.к. обработка идет на сервере.</t>
+  </si>
+  <si>
+    <t>средствами бразера(пока достаточно)</t>
+  </si>
+  <si>
+    <t>ОБСУДИТЬ</t>
+  </si>
+  <si>
+    <t>Сохранение в бд хоста пользователя при регистрации и авторизации - для статистики и анализа логина</t>
+  </si>
+  <si>
+    <t>Централизованная фиксация ошибок на сервере бд - для оперативного решения проблем</t>
+  </si>
+  <si>
+    <t>task 16</t>
   </si>
 </sst>
 </file>
@@ -906,8 +924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2092,19 +2110,26 @@
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="4">
+    <row r="49" spans="1:11" s="18" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="15">
         <v>47</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49" s="17">
         <v>46</v>
       </c>
-      <c r="G49" s="3" t="s">
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="18" t="s">
         <v>4</v>
       </c>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="19"/>
     </row>
     <row r="50" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
@@ -2139,55 +2164,98 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
     <col min="2" max="2" width="53.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="34.7109375" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="2"/>
+    <col min="3" max="3" width="34.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.42578125" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="34" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="118">
   <si>
     <t>Задача</t>
   </si>
@@ -406,6 +406,21 @@
   </si>
   <si>
     <t>task 16</t>
+  </si>
+  <si>
+    <t>стили</t>
+  </si>
+  <si>
+    <t>Справка и контент</t>
+  </si>
+  <si>
+    <t>Ограничение ресурсов для пользователей в зависимости от ролей.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ГДЕ ВВОДИТЬ ПРОВЕРКУ?</t>
+  </si>
+  <si>
+    <t>Огрничить математические операции до двух для накопительных параметров монитора???</t>
   </si>
 </sst>
 </file>
@@ -514,7 +529,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -617,6 +632,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -924,7 +942,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
@@ -2164,10 +2182,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2191,6 +2209,9 @@
       <c r="B3" s="16" t="s">
         <v>107</v>
       </c>
+      <c r="C3" s="35" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -2199,7 +2220,7 @@
       <c r="B4" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="35" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2232,7 +2253,7 @@
       <c r="B7" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="35" t="s">
         <v>109</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -2246,16 +2267,35 @@
       <c r="B8" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="117">
   <si>
     <t>Задача</t>
   </si>
@@ -418,9 +418,6 @@
   </si>
   <si>
     <t xml:space="preserve"> ГДЕ ВВОДИТЬ ПРОВЕРКУ?</t>
-  </si>
-  <si>
-    <t>Огрничить математические операции до двух для накопительных параметров монитора???</t>
   </si>
 </sst>
 </file>
@@ -2182,10 +2179,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2288,14 +2285,6 @@
       </c>
       <c r="C10" s="1" t="s">
         <v>116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="121">
   <si>
     <t>Задача</t>
   </si>
@@ -418,6 +418,18 @@
   </si>
   <si>
     <t xml:space="preserve"> ГДЕ ВВОДИТЬ ПРОВЕРКУ?</t>
+  </si>
+  <si>
+    <t>Удаление измерений по монитору за период</t>
+  </si>
+  <si>
+    <t>Исполнитель</t>
+  </si>
+  <si>
+    <t>Что делать, вопросы, комментарии</t>
+  </si>
+  <si>
+    <t>Из-за ограничения ресурсов</t>
   </si>
 </sst>
 </file>
@@ -2179,10 +2191,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2194,12 +2206,21 @@
     <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="34" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B1" s="34" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>101</v>
       </c>
@@ -2209,8 +2230,11 @@
       <c r="C3" s="35" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -2220,8 +2244,11 @@
       <c r="C4" s="35" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -2232,7 +2259,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -2243,7 +2270,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -2254,10 +2281,13 @@
         <v>109</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -2267,8 +2297,11 @@
       <c r="C8" s="35" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -2276,7 +2309,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -2285,6 +2318,23 @@
       </c>
       <c r="C10" s="1" t="s">
         <v>116</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="27795" windowHeight="12330" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="27795" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="план" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="122">
   <si>
     <t>Задача</t>
   </si>
@@ -430,6 +430,9 @@
   </si>
   <si>
     <t>Из-за ограничения ресурсов</t>
+  </si>
+  <si>
+    <t>task 49</t>
   </si>
 </sst>
 </file>
@@ -949,10 +952,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2077,10 +2080,10 @@
         <v>10</v>
       </c>
       <c r="H46" s="11">
-        <v>43338</v>
+        <v>43246</v>
       </c>
       <c r="I46" s="11">
-        <v>43338</v>
+        <v>43246</v>
       </c>
       <c r="J46" s="7" t="s">
         <v>16</v>
@@ -2125,10 +2128,10 @@
         <v>10</v>
       </c>
       <c r="H48" s="11">
-        <v>43338</v>
+        <v>43246</v>
       </c>
       <c r="I48" s="11">
-        <v>43338</v>
+        <v>43246</v>
       </c>
       <c r="J48" s="7" t="s">
         <v>16</v>
@@ -2173,15 +2176,32 @@
         <v>10</v>
       </c>
       <c r="H50" s="11">
-        <v>43339</v>
+        <v>43247</v>
       </c>
       <c r="I50" s="11">
-        <v>43339</v>
+        <v>43247</v>
       </c>
       <c r="J50" s="7" t="s">
         <v>16</v>
       </c>
       <c r="K50" s="13"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>49</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H51" s="12">
+        <v>43281</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2193,8 +2213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2335,6 +2355,9 @@
       </c>
       <c r="D11" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="27795" windowHeight="12330"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="27795" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="план" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="123">
   <si>
     <t>Задача</t>
   </si>
@@ -433,6 +433,9 @@
   </si>
   <si>
     <t>task 49</t>
+  </si>
+  <si>
+    <t>Вызов плагина DataTable вне onReady , т.к. дергается экран при отрисовке стилей</t>
   </si>
 </sst>
 </file>
@@ -954,8 +957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2186,21 +2189,31 @@
       </c>
       <c r="K50" s="13"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="4">
+    <row r="51" spans="1:11" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="7">
         <v>49</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="G51" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H51" s="12">
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H51" s="11">
         <v>43281</v>
       </c>
-      <c r="J51" s="4" t="s">
-        <v>51</v>
+      <c r="I51" s="11">
+        <v>43281</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K51" s="13" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2211,10 +2224,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2223,10 +2236,12 @@
     <col min="2" max="2" width="53.85546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="34.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="28.42578125" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="2"/>
+    <col min="5" max="5" width="9.140625" style="2"/>
+    <col min="6" max="6" width="23" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="34" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="34" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B1" s="34" t="s">
         <v>103</v>
       </c>
@@ -2240,7 +2255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>101</v>
       </c>
@@ -2254,7 +2269,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -2268,7 +2283,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -2279,7 +2294,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -2290,7 +2305,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -2307,7 +2322,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -2321,7 +2336,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -2329,7 +2344,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -2343,21 +2358,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+    <row r="11" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="29">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="D11" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="29" t="s">
         <v>121</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="126">
   <si>
     <t>Задача</t>
   </si>
@@ -436,6 +436,15 @@
   </si>
   <si>
     <t>Вызов плагина DataTable вне onReady , т.к. дергается экран при отрисовке стилей</t>
+  </si>
+  <si>
+    <t>Страница ошибки</t>
+  </si>
+  <si>
+    <t>Error.cshtml</t>
+  </si>
+  <si>
+    <t>task 50</t>
   </si>
 </sst>
 </file>
@@ -955,10 +964,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="J51" sqref="J51"/>
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2216,6 +2225,20 @@
         <v>122</v>
       </c>
     </row>
+    <row r="52" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>50</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K52" s="14" t="s">
+        <v>124</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2224,10 +2247,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2375,6 +2398,23 @@
         <v>121</v>
       </c>
       <c r="F11" s="29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>45</v>
       </c>
     </row>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="27795" windowHeight="12330" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="27795" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="план" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="129">
   <si>
     <t>Задача</t>
   </si>
@@ -445,6 +445,15 @@
   </si>
   <si>
     <t>task 50</t>
+  </si>
+  <si>
+    <t>Логирование ошибок MS SQL</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>Таблица и процедура логирования. Все ошибки в хранимых процедурах регистрируются.</t>
   </si>
 </sst>
 </file>
@@ -964,10 +973,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K52"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2225,18 +2234,62 @@
         <v>122</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="4">
+    <row r="52" spans="1:11" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="7">
         <v>50</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K52" s="14" t="s">
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H52" s="11">
+        <v>43328</v>
+      </c>
+      <c r="I52" s="11">
+        <v>43328</v>
+      </c>
+      <c r="J52" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K52" s="13" t="s">
         <v>124</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="7">
+        <v>51</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H53" s="11">
+        <v>43330</v>
+      </c>
+      <c r="I53" s="11">
+        <v>43330</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K53" s="13" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2249,7 +2302,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="27795" windowHeight="12330"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="27795" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="план" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="131">
   <si>
     <t>Задача</t>
   </si>
@@ -454,6 +454,13 @@
   </si>
   <si>
     <t>Таблица и процедура логирования. Все ошибки в хранимых процедурах регистрируются.</t>
+  </si>
+  <si>
+    <t>Какой DURATION??? Поставил час</t>
+  </si>
+  <si>
+    <t>КЭШИРОВАНИЕ СТАТИЧЕСКИХ ФАЙЛОВ -???
+КЭШИРОВАНИЕ Главной страницы и справки ??</t>
   </si>
 </sst>
 </file>
@@ -562,7 +569,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -668,6 +675,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -975,7 +985,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
@@ -2300,10 +2310,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2314,10 +2324,11 @@
     <col min="4" max="4" width="28.42578125" style="2" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="2"/>
     <col min="6" max="6" width="23" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="2"/>
+    <col min="7" max="7" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="34" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="34" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B1" s="34" t="s">
         <v>103</v>
       </c>
@@ -2331,7 +2342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>101</v>
       </c>
@@ -2345,7 +2356,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -2359,7 +2370,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -2370,7 +2381,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -2381,7 +2392,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -2398,7 +2409,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -2412,7 +2423,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -2420,7 +2431,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -2434,7 +2445,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29">
         <v>9</v>
       </c>
@@ -2454,7 +2465,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -2469,6 +2480,23 @@
       </c>
       <c r="F12" s="2" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="36">
+        <v>43331</v>
       </c>
     </row>
   </sheetData>
